--- a/资产负债表/688063.xlsx
+++ b/资产负债表/688063.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>SECUCODE</t>
   </si>
@@ -193,12 +193,18 @@
     <t>688063</t>
   </si>
   <si>
+    <t>016043</t>
+  </si>
+  <si>
     <t>10431951</t>
   </si>
   <si>
     <t>派能科技</t>
   </si>
   <si>
+    <t>机械行业</t>
+  </si>
+  <si>
     <t>kcb</t>
   </si>
   <si>
@@ -208,7 +214,7 @@
     <t>069001001006</t>
   </si>
   <si>
-    <t>002</t>
+    <t>004</t>
   </si>
   <si>
     <t>001</t>
@@ -220,7 +226,7 @@
     <t>2020-12-10 00:00:00</t>
   </si>
   <si>
-    <t>2020-06-30 00:00:00</t>
+    <t>2020-09-30 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -764,65 +770,71 @@
       <c r="B2" t="s">
         <v>58</v>
       </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O2">
-        <v>1005526420.44</v>
+        <v>1132062776.64</v>
       </c>
       <c r="P2">
-        <v>208353178.09</v>
+        <v>215441385.31</v>
       </c>
       <c r="Q2">
-        <v>168242638.33</v>
+        <v>287149068.92</v>
       </c>
       <c r="S2">
-        <v>237401338.09</v>
+        <v>249682648.3</v>
       </c>
       <c r="U2">
-        <v>182053052.23</v>
+        <v>182135594.84</v>
       </c>
       <c r="W2">
-        <v>437016045.42</v>
+        <v>490279049.42</v>
       </c>
       <c r="X2">
-        <v>257453093.32</v>
+        <v>221570338.66</v>
       </c>
       <c r="AB2">
-        <v>568510375.02</v>
+        <v>641783727.22</v>
       </c>
       <c r="AF2">
-        <v>162.2318487347</v>
+        <v>168.0310344581</v>
       </c>
       <c r="AG2">
-        <v>43.4614184706</v>
+        <v>43.3084683585</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表/688063.xlsx
+++ b/资产负债表/688063.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,47 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1132062776.64</v>
+        <v>796946022.88</v>
       </c>
       <c r="P2" t="n">
-        <v>215441385.31</v>
+        <v>139971788.11</v>
       </c>
       <c r="Q2" t="n">
-        <v>287149068.92</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>113744021.01</v>
+      </c>
+      <c r="R2" t="n">
+        <v>928.9079349734</v>
+      </c>
       <c r="S2" t="n">
-        <v>249682648.3</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>153476622.85</v>
+      </c>
+      <c r="T2" t="n">
+        <v>19.9369371477</v>
+      </c>
       <c r="U2" t="n">
-        <v>182135594.84</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>152606762.75</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9.315527354</v>
+      </c>
       <c r="W2" t="n">
-        <v>490279049.42</v>
+        <v>352495723.78</v>
       </c>
       <c r="X2" t="n">
-        <v>221570338.66</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+        <v>141697375.41</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.2795549971</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5730141.43</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-20.1217830597</v>
+      </c>
       <c r="AB2" t="n">
-        <v>641783727.22</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>444450299.1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>66.9422343972</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>50.6118444849</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>34.075174711</v>
+      </c>
       <c r="AF2" t="n">
-        <v>168.0310344581</v>
+        <v>151.0069815155</v>
       </c>
       <c r="AG2" t="n">
-        <v>43.3084683585</v>
+        <v>44.2308153451</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688063.xlsx
+++ b/资产负债表/688063.xlsx
@@ -784,70 +784,54 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-10 00:00:00</t>
+          <t>2020-12-24 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>796946022.88</v>
+        <v>393797078.78</v>
       </c>
       <c r="P2" t="n">
-        <v>139971788.11</v>
+        <v>121527467.58</v>
       </c>
       <c r="Q2" t="n">
-        <v>113744021.01</v>
-      </c>
-      <c r="R2" t="n">
-        <v>928.9079349734</v>
-      </c>
+        <v>10288960.37</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>153476622.85</v>
-      </c>
-      <c r="T2" t="n">
-        <v>19.9369371477</v>
-      </c>
+        <v>56985757.13</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>152606762.75</v>
-      </c>
-      <c r="V2" t="n">
-        <v>9.315527354</v>
-      </c>
+        <v>94749305.31999999</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>352495723.78</v>
+        <v>173026372.18</v>
       </c>
       <c r="X2" t="n">
-        <v>141697375.41</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.2795549971</v>
-      </c>
+        <v>91015223.28</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>5730141.43</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-20.1217830597</v>
-      </c>
+        <v>8689836.07</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>444450299.1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>66.9422343972</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>50.6118444849</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>34.075174711</v>
-      </c>
+        <v>220770706.6</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>151.0069815155</v>
+        <v>121.6439117345</v>
       </c>
       <c r="AG2" t="n">
-        <v>44.2308153451</v>
+        <v>43.9379521849</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688063.xlsx
+++ b/资产负债表/688063.xlsx
@@ -789,49 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>393797078.78</v>
+        <v>529139010.02</v>
       </c>
       <c r="P2" t="n">
-        <v>121527467.58</v>
+        <v>118485052.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>10288960.37</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>11054829.8</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7.4436036534</v>
+      </c>
       <c r="S2" t="n">
-        <v>56985757.13</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>127964434.06</v>
+      </c>
+      <c r="T2" t="n">
+        <v>124.5551178132</v>
+      </c>
       <c r="U2" t="n">
-        <v>94749305.31999999</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>139602091.71</v>
+      </c>
+      <c r="V2" t="n">
+        <v>47.3383802008</v>
+      </c>
       <c r="W2" t="n">
-        <v>173026372.18</v>
+        <v>262909016.93</v>
       </c>
       <c r="X2" t="n">
-        <v>91015223.28</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>139907186.02</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>53.7184450887</v>
+      </c>
       <c r="Z2" t="n">
-        <v>8689836.07</v>
-      </c>
-      <c r="AA2" t="inlineStr"/>
+        <v>7173597.07</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-17.448418909</v>
+      </c>
       <c r="AB2" t="n">
-        <v>220770706.6</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>266229993.09</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>20.591176787</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>34.3684446973</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>51.947367108</v>
+      </c>
       <c r="AF2" t="n">
-        <v>121.6439117345</v>
+        <v>129.4633296613</v>
       </c>
       <c r="AG2" t="n">
-        <v>43.9379521849</v>
+        <v>49.6861905759</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688063.xlsx
+++ b/资产负债表/688063.xlsx
@@ -789,65 +789,49 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>529139010.02</v>
+        <v>393797078.78</v>
       </c>
       <c r="P2" t="n">
-        <v>118485052.82</v>
+        <v>121527467.58</v>
       </c>
       <c r="Q2" t="n">
-        <v>11054829.8</v>
-      </c>
-      <c r="R2" t="n">
-        <v>7.4436036534</v>
-      </c>
+        <v>10288960.37</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>127964434.06</v>
-      </c>
-      <c r="T2" t="n">
-        <v>124.5551178132</v>
-      </c>
+        <v>56985757.13</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>139602091.71</v>
-      </c>
-      <c r="V2" t="n">
-        <v>47.3383802008</v>
-      </c>
+        <v>94749305.31999999</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>262909016.93</v>
+        <v>173026372.18</v>
       </c>
       <c r="X2" t="n">
-        <v>139907186.02</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>53.7184450887</v>
-      </c>
+        <v>91015223.28</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>7173597.07</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-17.448418909</v>
-      </c>
+        <v>8689836.07</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>266229993.09</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>20.591176787</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>34.3684446973</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>51.947367108</v>
-      </c>
+        <v>220770706.6</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>129.4633296613</v>
+        <v>121.6439117345</v>
       </c>
       <c r="AG2" t="n">
-        <v>49.6861905759</v>
+        <v>43.9379521849</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
